--- a/tests/data/input/一级测试用例-f0002.xlsx
+++ b/tests/data/input/一级测试用例-f0002.xlsx
@@ -31,6 +31,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -39,6 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,6 +55,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -61,6 +64,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,6 +79,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -83,6 +88,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -97,6 +103,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -105,6 +112,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -119,6 +127,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -127,6 +136,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -141,6 +151,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -149,6 +160,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -163,6 +175,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -171,6 +184,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -185,6 +199,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -193,6 +208,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -207,6 +223,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -215,6 +232,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -229,6 +247,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -237,6 +256,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -251,6 +271,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>杨也晰:</t>
@@ -259,6 +280,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -271,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -416,6 +438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -461,6 +485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,38 +521,29 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">info_com_bus_face.basic_id;
-info_com_bus_face.industry_phy_code[0-0]='A'; info_com_bus_face.industry_phy_code[1-0]='F'; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>per_face_relent_indusCode1='A,F'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>info_com_bus_face.basic_id;
+info_com_bus_face.industry_phy_code[0-0]='A'; info_com_bus_face.industry_phy_code[1-0]='F'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>info_per_bus_legal.basic_id;
-info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-009';
-info_per_bus_legal.ent_status[1]='在营（开业）'</t>
+      <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-00</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>info_per_bus_shareholder.basic_id;
-info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-010</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -538,9 +554,69 @@
         <scheme val="minor"/>
       </rPr>
       <t>';
-info_per_bus_shareholder.funded_ratio[0]='0.7';
-info_per_bus_shareholder.ent_status[0]='注销'; 
-info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-0</t>
+info_per_bus_shareholder.funded_ratio[0]='0.3';
+info_per_bus_shareholder.ent_status[0]='在营（开业）';
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';
+info_per_bus_shareholder.funded_ratio[1]='0.7';
+info_per_bus_shareholder.ent_status[1]='注销'; 
+info_per_bus_shareholder.ent_name[2]='上海蓝胖子有限公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';
+info_per_bus_shareholder.funded_ratio[2]='0.9';
+info_per_bus_shareholder.ent_status[2]='在营（开业）'</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-008';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-010'</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-0</t>
     </r>
     <r>
       <rPr>
@@ -558,11 +634,151 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>';
-info_per_bus_shareholder.funded_ratio[1]='0.</t>
+info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';
+info_per_bus_legal.ent_status[1]='在营（开业）'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-014';
+info_per_bus_shareholder.funded_ratio[1]='0.9';
+info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'; info_com_bus_basic.ent_name[2]='上海蓝胖子有限公司江苏分公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_legal.basic_id;
+info_per_bus_legal.ent_name[0]='上海蓝胖子有限公司f001-0</t>
     </r>
     <r>
       <rPr>
@@ -580,18 +796,77 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>';
+info_per_bus_legal.ent_status[0]='在营（开业）'; info_per_bus_legal.ent_name[1]='上海蓝胖子有限公司f001-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>';
+info_per_bus_legal.ent_status[1]='在营（开业）'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_per_bus_shareholder.basic_id;
+info_per_bus_shareholder.ent_name[0]='上海蓝胖子有限公司f001-01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7';
+info_per_bus_shareholder.funded_ratio[0]='0.7';
+info_per_bus_shareholder.ent_status[0]='注销'; 
+info_per_bus_shareholder.ent_name[1]='上海蓝胖子有限公司f001-018';
+info_per_bus_shareholder.funded_ratio[1]='0.15';
 info_per_bus_shareholder.ent_status[1]='在营（开业）'</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">info_com_bus_basic.id;
-info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-008';
-info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-009'; </t>
+    <t>info_com_bus_basic.id;
+info_com_bus_basic.ent_name[0]='上海蓝胖子有限公司f001-015';
+info_com_bus_basic.ent_name[1]='上海蓝胖子有限公司江苏分公司f001-016'</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -611,29 +886,34 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -738,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +1128,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,8 +1424,8 @@
   <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1287,12 +1576,12 @@
       <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>15</v>
+      <c r="E4" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="26" t="s">
-        <v>22</v>
+      <c r="G4" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>23</v>
@@ -1323,14 +1612,14 @@
       <c r="D5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>28</v>
+      <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>29</v>
@@ -1361,21 +1650,21 @@
       <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>34</v>
+      <c r="E6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>16</v>
